--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 인물.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 인물.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,14 +822,210 @@
           <t>박은식, 신채호</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>장지영, 이윤재 등이 국문연구소(1907)의 뒤를 이은 조선어 연구회(1921)를 조직하였다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>주시경, 지석영</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>장지영, 이윤재</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>박은식은 1919년 대한국민노인동맹단을 조직하고 지도자로 활약하였다. 이 단체의 대표적 인물로는 일제 총독 사이토에 폭탄 투척 의거를 한 강우규 의사가 있다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>손진태</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>박은식</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>이병도, 손진태 등은 진단학회에 참여하여 『진단학보』를 발간하였다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>정인보</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>이병도, 손진태</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1946년 미군정이 설립한 남조선 과도 입법 의원의 의장은 김규식이다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>손진태</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>김규식</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>옛 사람이 말하기를 나라는 멸망할 수 있으나 그 역사는 결코 없어질 수 없다고 했으니, 이는 나라가 형체라면 역사는 정신이기 때문이다. 이제 우리나라의 형체는 없어져 버렸지만, 정신은 살아남아야 할 것이다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>박은식: 『한국통사』</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>안재홍은 8 · 15 광복과 동시에 조선건국준비위원회의 부위원장이 되었다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>김규식</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>안재홍</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>『조선상고사감』은 안재홍이 우리나라 고대사에 관련된 여러 논문을 묶어 편찬한 책이다</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>신채호</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>안재홍</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>독사신론에서 민족을 역사서술의 주체로 설정하고 사대 주의를 비판하였다</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>백남운</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>신채호</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>20230213</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>11시 36분</t>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22시 18분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 인물.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 인물.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,14 +526,264 @@
           <t>신채호: 『독사신론』</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20230214</t>
-        </is>
+      <c r="D4" t="n">
+        <v>20230214</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>13시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>「청토오적소(請討五賊疏)」를 올려 을사조약 파기와 매국 오적 처단을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>홍영식</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>오늘날 급선무는 인재를 등용하며 국가 재정을 절약하고 사치를 억제하며, 문호를 개방하고 이웃나라와 친선을 도모하는 데 있다. … (중략) … 일본은 법을 변경한 이후로 모든 것을 바꾸었다[更張]고 한다</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>김홍집</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>김옥균: 급진개화파</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>홍재학은 주화매국의 신료를 처벌하고 서양물품과 서양서적을 불태울 것을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>홍재학</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>조선은 1882년에 미국과 조･미 수호 통상 조약을 체결하였고, 이에 따라 미국인 공사 푸트가 조선에 부임해 오자 고종은 그 답례로 민영익을 전권대신으로 하는 보빙사를 미국에 파견하였다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>윤치호</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>민영익</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>서양 종교는 사교이므로 마땅히 음탕한 음악이나 미색처럼 여겨서 멀리해야겠지만, 서양 기계는 이로워서 진실로 백성의 생활을 편리하게 할 수 있다</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>김홍집</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>김윤식: 온건개화파</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1860년대 이항로, 기정진 등의 유생은 척화주전론을 내세워 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>이만손</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1860년대 이항로는 척화주전론을 내세우며 『화서아언』을 지어 프랑스와 통상을 반대하였다</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>박영효</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1860년대 이항로, 기정진 등의 유생은 척화주전론을 내세워 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>연해주에서 13도 의군을 결성하여 도총재로 추대되었다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>이만손</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>유인석</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>『조선책략』을 입수하여 국내에 소개하였다</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>김옥균</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>김홍집</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20230216</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21시 25분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 인물.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 인물.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,14 +776,614 @@
           <t>김홍집</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>20230216</t>
-        </is>
+      <c r="D14" t="n">
+        <v>20230216</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>21시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>박정양, 조병직, 이상재, 윤치호 등과 함께 조사 시찰단의 일원 으로 몇 개월간 일본에 파견되었다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>박영효</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>홍영식</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>영선사(1881)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>민영익</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1880년대 홍재학은 ‘만언척사소’를 올려 개화 반대와 서양 문물 및 서적을 불태울 것을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>홍재학</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1860년대 이항로는 척화주전론을 내세우며 『화서아언』을 지어 프랑스와 통상을 반대하였다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>윤치호</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>연해주에서 13도 의군을 결성하여 도총재로 추대되었다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>민영익</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>유인석</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>일단 강화를 맺고 나면 저 적들의 욕심은 물화를 교역하는 데 있습니다. 저들의 물화는 모두 지나치게 사치하고 기이한 노리개이고 손으로 만든 것이어서 그 양이 무궁합니다. …(중략) … 저들은 비록 왜인이라고 하나 실은 양적입니다. 강화가 한번 이루어지면 사학의 서적과 천주의 초상화가 교역하는 속에서 들어올 것입니다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>민영익</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>최익현: 왜양일체론(강화도 조약 체결 반대 상소)</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>조사 시찰단(1881)은 박정양, 어윤중, 홍영식 등을 중심으로 일본의 정세를 파악하고, 각종 근대 산업 시설을 시찰하기 위해 파견된 사절단이다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>박정양, 어윤중, 홍영식</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1880년대 홍재학은 ‘만언척사소’를 올려 개화 반대와 서양 문물 및 서적을 불태울 것을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>이만손</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>홍재학</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>19시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1894년 제1차 갑오개혁 당시 군국기무처의 회의원으로 참여하였고, 후에 국어 문법서인 『조선문전』을 저술하였다</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>김옥균</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1860년대 이항로는 척화주전론을 내세우며 『화서아언』을 지어 프랑스와 통상을 반대하였다</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>홍영식</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>19시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>이노우에 가오루는 청일전쟁 시기 주한공사를 역임하였다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>묄렌도르프, 마젠창</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>이노우에 가오루</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>이항로는 척화주전론을 주장하며 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1880년대 홍재학은 ‘만언척사소’를 올려 개화 반대와 서양 문물 및 서적을 불태울 것을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>홍재학</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1860년대 이항로는 척화주전론을 내세우며 『화서아언』을 지어 프랑스와 통상을 반대하였다</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>이항로는 척화주전론을 주장하며 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>이만손</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1894년 제1차 갑오개혁 당시 군국기무처의 회의원으로 참여하였고, 후에 국어 문법서인 『조선문전』을 저술하였다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>박영효</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>이항로는 척화주전론을 주장하며 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>이만손</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1894년 제1차 갑오개혁 당시 군국기무처의 회의원으로 참여하였고, 후에 국어 문법서인 『조선문전』을 저술하였다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>유인석</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1880년대 홍재학은 ‘만언척사소’를 올려 개화 반대와 서양 문물 및 서적을 불태울 것을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>홍재학</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>조선은 1882년에 미국과 조･미 수호 통상 조약을 체결하였고, 이에 따라 미국인 공사 푸트가 조선에 부임해 오자 고종은 그 답례로 민영익을 전권대신으로 하는 보빙사를 미국에 파견하였다</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>유인석</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>민영익</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>정부는 김윤식을 영선사로 삼아 학생과 기술자를 톈진에 파견하였다</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>유인석</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>국가의 역사는 민족의 소장성쇠(消長盛衰)의 상태를 서술할지라. 민족을 빼면 역사가 없으며 역사를 빼어 버리면 민족의 그 국가에 대한 관념이 크지 않을지니, 오호라 역사가의 책임이 그 역시 무거울 진저 …</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>백남운</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>신채호: 『독사신론』</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1860년대 이항로는 척화주전론을 내세우며 『화서아언』을 지어 프랑스와 통상을 반대하였다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>이항로는 척화주전론을 주장하며 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20230218</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23시 35분</t>
         </is>
       </c>
     </row>
